--- a/DOM_Banner/output/dept_banner/Mathew Hutchinson_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Mathew Hutchinson_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine; University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317718204</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Coronary arterial injury during right ventricular outflow tract ablation: Know your neighbors</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Authorea (Authorea)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.22541/au.167436723.34548253/v1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.22541/au.167436723.34548253/v1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mahesh Balakrishnan, Mathew D. Hutchinson</t>
+          <t>Aadhavi Sridharan, Mathew D. Hutchinson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317905187</t>
+          <t>Banner University Medical Center‐Tucson and University of Arizona College of Medicine Tucson Tucson Arizona USA; Banner University Medical Center‐Tucson and University of Arizona College of Medicine Tucson Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Increasing Trend in Ventricular Tachycardia Related Mortality- Cause or Effect?</t>
+          <t>https://openalex.org/W4318451313</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>Coronary arterial injury during right ventricular outflow tract ablation: Know your neighbors</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Authorea (Authorea)</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Journal of Cardiovascular Electrophysiology</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wiley-Blackwell</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jce.15835</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.22541/au.167455455.52677225/v1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22541/au.167455455.52677225/v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36709466</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jce.15835</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aadhavi Sridharan, Mathew D. Hutchinson</t>
+          <t>Mahesh Balakrishnan, Mathew D. Hutchinson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318451313</t>
+          <t>Banner University Medical Center-Tucson and University of Arizona College of Medicine Tucson, Tucson, Arizona, USA; Banner University Medical Center-Tucson and University of Arizona College of Medicine Tucson, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coronary arterial injury during right ventricular outflow tract ablation: Know your neighbors</t>
+          <t>https://openalex.org/W4319216515</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>Increasing trend in ventricular tachycardia related mortality: Cause or effect?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Journal of Cardiovascular Electrophysiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/jce.15835</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1111/jce.15837</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36709466</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jce.15835</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36738146</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jce.15837</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319216515</t>
+          <t>University of Arizona College of Medicine; University of Arizona College of Medicine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Increasing trend in ventricular tachycardia related mortality: Cause or effect?</t>
+          <t>https://openalex.org/W4317905187</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>Increasing Trend in Ventricular Tachycardia Related Mortality- Cause or Effect?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Journal of Cardiovascular Electrophysiology</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Authorea (Authorea)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jce.15837</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.22541/au.167455455.52677225/v1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36738146</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jce.15837</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22541/au.167455455.52677225/v1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
